--- a/other_urls.xlsx
+++ b/other_urls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WEB BURGER\Desktop\email_scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75486C9-3CC9-47BA-8F77-CF387DC3E26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AFE62D-F4CA-41F0-83F9-BD6CF320B346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{F095B418-CCAF-4431-AD69-57D855951BE1}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="564">
-  <si>
-    <t>https://lnk.bio/go?d=https%3A%2F%2Fitunes.apple.com%2Fus%2Fpodcast%2Four-damn-podcast%2Fid1437124124%3Fmt%3D2&amp;id=197283&amp;hash=ee8182e87bd4a4089bc80cc859664da2&amp;timezone=America/New_York</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="527">
   <si>
     <t>https://lnk.bio/EHC1</t>
   </si>
@@ -39,33 +36,9 @@
     <t>https://lnk.bio/creativelab</t>
   </si>
   <si>
-    <t>https://lnk.bio/go?d=https%3A%2F%2Fwww.instagram.com%2Fnayradyn&amp;hash=203164ade8cc0601d4a595e3d5da8e1f&amp;timezone=America%2FNew_York&amp;ext=1597171517&amp;type=3&amp;platform=SOCIAL_IG</t>
-  </si>
-  <si>
-    <t>https://lnk.bio/go?d=https%3A%2F%2FGumroad.com%2Fbuythehood&amp;hash=881dc5481695d0b5af9fff1f0d5f8d76&amp;timezone=America%2FNew_York&amp;ext=-1146765&amp;type=3&amp;platform=</t>
-  </si>
-  <si>
-    <t>https://lnk.bio/go?d=https%3A%2F%2Fwww.instagram.com%2Fami_michele&amp;hash=51aad2e12c0e9d0018e934006b5be499&amp;timezone=America%2FNew_York&amp;ext=-1151188&amp;type=3&amp;platform=SOCIAL_IG</t>
-  </si>
-  <si>
-    <t>https://lnk.bio/go?d=https%3A%2F%2Fwww.instagram.com%2Fdenzelworldpeace&amp;hash=9ccb5dfab8475b7e86ed4db89a4170f1&amp;timezone=America%2FNew_York&amp;ext=35662674&amp;type=3&amp;platform=SOCIAL_IG</t>
-  </si>
-  <si>
-    <t>https://lnk.bio/go?d=https%3A%2F%2Fwww.instagram.com%2Fsmayfer&amp;hash=6b3252b56485e477b39df41dab184d30&amp;timezone=America%2FNew_York&amp;ext=677035655&amp;type=3&amp;platform=SOCIAL_IG</t>
-  </si>
-  <si>
-    <t>https://lnk.bio/go?d=https%3A%2F%2Fwww.instagram.com%2Fdarkbandstudio&amp;hash=10d0e03d79bd98e33807fe6390ee7995&amp;timezone=America%2FNew_York&amp;ext=-1138919&amp;type=3&amp;platform=SOCIAL_IG</t>
-  </si>
-  <si>
     <t>https://lnk.bio/GuruAnaerobic</t>
   </si>
   <si>
-    <t>https://lnk.bio/go?d=https%3A%2F%2Fwww.instagram.com%2Fcaroangulito&amp;hash=6187fb9c9ed862959d8a21c8d673ee20&amp;timezone=America%2FNew_York&amp;ext=483744305&amp;type=3&amp;platform=SOCIAL_IG</t>
-  </si>
-  <si>
-    <t>https://lnk.bio/go?d=https%3A%2F%2Fwww.instagram.com%2Fknit.love.wool&amp;hash=305af5e7a6aaa357ed044650d20f5955&amp;timezone=America%2FNew_York&amp;ext=-1033600&amp;type=3&amp;platform=SOCIAL_IG</t>
-  </si>
-  <si>
     <t>https://lnk.bio/JfjR</t>
   </si>
   <si>
@@ -75,9 +48,6 @@
     <t>https://lnk.bio/kyoushuneko_miniatures</t>
   </si>
   <si>
-    <t>https://lnk.bio/go?d=https%3A%2F%2Fyoutube.com%2Fdopedrop&amp;hash=3aaaec611a044b30b1942fa0543f7601&amp;timezone=America%2FNew_York&amp;ext=-1101740&amp;type=2&amp;platform=MUSIC_YTB</t>
-  </si>
-  <si>
     <t>https://lnk.bio/danirdesign</t>
   </si>
   <si>
@@ -87,18 +57,9 @@
     <t>https://lnk.bio/portsherry</t>
   </si>
   <si>
-    <t>https://lnk.bio/go?d=https%3A%2F%2Fpodcasts.apple.com%2Fus%2Fpodcast%2Fyouve-been-micd%2Fid1450962021&amp;hash=3d049fe3253d01ab4e7d420e30967725&amp;timezone=America%2FNew_York&amp;ext=-1070918&amp;type=2&amp;platform=MUSIC_APL</t>
-  </si>
-  <si>
     <t>https://lnk.bio/collaboratepros</t>
   </si>
   <si>
-    <t>https://lnk.bio/go?d=http://krsmi.ru/5-znamenitostej-smenivshih-pol/</t>
-  </si>
-  <si>
-    <t>https://lnk.bio/go?d=https%3A%2F%2Ftwitter.com%2Fstevennvan&amp;hash=7150807fdb9f6dcf51114d1e57fe861d&amp;timezone=America%2FNew_York&amp;ext=2356536247&amp;type=3&amp;platform=SOCIAL_TW</t>
-  </si>
-  <si>
     <t>https://lnk.bio/cuentosdelacrypto</t>
   </si>
   <si>
@@ -492,9 +453,6 @@
     <t>https://about.me/landzduan/getstarted</t>
   </si>
   <si>
-    <t>https://blog.about.me/2012/09/14/seven-fast-weeks/?share=stumbleupon</t>
-  </si>
-  <si>
     <t>https://about.me/walkeepawsdogleggings1</t>
   </si>
   <si>
@@ -666,18 +624,12 @@
     <t>https://about.me/the789bet</t>
   </si>
   <si>
-    <t>https://blog.about.me/category/internships/</t>
-  </si>
-  <si>
     <t>https://about.me/hervella</t>
   </si>
   <si>
     <t>https://about.me/b29vnclub</t>
   </si>
   <si>
-    <t>https://blog.about.me/page/77/?wref=bif</t>
-  </si>
-  <si>
     <t>https://about.me/huthamcautaurenco</t>
   </si>
   <si>
@@ -1071,66 +1023,6 @@
     <t>https://lu.ma/123Kate</t>
   </si>
   <si>
-    <t>sitr://contactinbio.com 'gumroad'</t>
-  </si>
-  <si>
-    <t>https://www.saashub.com/compare-linktree-vs-gumroad</t>
-  </si>
-  <si>
-    <t>https://www.saashub.com/compare-ko-fi-vs-contactinbio</t>
-  </si>
-  <si>
-    <t>https://www.podia.com/articles/best-link-in-bio-tools</t>
-  </si>
-  <si>
-    <t>https://zyro.com/blog/linktree-alternatives/</t>
-  </si>
-  <si>
-    <t>https://bestringtonesnet.contactin.bio/</t>
-  </si>
-  <si>
-    <t>http://novasov.ctcin.bio/</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/weloveyourbrands/</t>
-  </si>
-  <si>
-    <t>https://petermurage.com/linktree-alternatives/</t>
-  </si>
-  <si>
-    <t>https://www.jotform.com/blog/more-creative-solutions-without-writing-code/</t>
-  </si>
-  <si>
-    <t>https://rigorousthemes.com/blog/best-linktree-alternatives/</t>
-  </si>
-  <si>
-    <t>https://www.g2.com/products/paddle/reviews</t>
-  </si>
-  <si>
-    <t>https://easyqualifymoney.mystrikingly.com/blog/list-of-high-da-pa-dofollow-backlink-submission-sites</t>
-  </si>
-  <si>
-    <t>https://itsmyurls.com/rankrageseo</t>
-  </si>
-  <si>
-    <t>https://start.me/p/MEP6yM/christina-rodriguez-online-resources</t>
-  </si>
-  <si>
-    <t>https://www.saasworthy.com/list/top-landing-page-software</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fLdra8zUMcI</t>
-  </si>
-  <si>
-    <t>https://sourceforge.net/software/compare/Linktree-vs-Squarespace-vs-Wix/</t>
-  </si>
-  <si>
-    <t>https://www.scribd.com/document/412262160/Top-Links-June-2019</t>
-  </si>
-  <si>
-    <t>https://www.spotsaas.com/sitemap/pricing.xml</t>
-  </si>
-  <si>
     <t>https://beacons.ai/beeb33.gumroad.com</t>
   </si>
   <si>
@@ -1600,9 +1492,6 @@
   </si>
   <si>
     <t>https://shor.by/ik8N</t>
-  </si>
-  <si>
-    <t>site://shor.by "Gumroad"</t>
   </si>
   <si>
     <t>https://biolinky.co/wastedarchive</t>
@@ -2088,4917 +1977,4784 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11E3AA9-5B1E-4FF8-AA29-E8CCC456437A}">
-  <dimension ref="A1:N490"/>
+  <dimension ref="A1:M490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="167.5703125" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" customWidth="1"/>
     <col min="2" max="2" width="84.7109375" customWidth="1"/>
-    <col min="3" max="3" width="64.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" customWidth="1"/>
     <col min="4" max="4" width="35.5703125" customWidth="1"/>
     <col min="5" max="5" width="53" customWidth="1"/>
     <col min="6" max="6" width="51.28515625" customWidth="1"/>
     <col min="7" max="7" width="38.28515625" customWidth="1"/>
     <col min="8" max="8" width="36.5703125" customWidth="1"/>
-    <col min="9" max="9" width="37.7109375" customWidth="1"/>
-    <col min="10" max="10" width="64.85546875" customWidth="1"/>
-    <col min="11" max="11" width="45.28515625" customWidth="1"/>
-    <col min="12" max="12" width="34.85546875" customWidth="1"/>
-    <col min="13" max="13" width="32.42578125" customWidth="1"/>
-    <col min="14" max="14" width="33.140625" customWidth="1"/>
+    <col min="9" max="9" width="64.85546875" customWidth="1"/>
+    <col min="10" max="10" width="45.28515625" customWidth="1"/>
+    <col min="11" max="11" width="34.85546875" customWidth="1"/>
+    <col min="12" max="12" width="32.42578125" customWidth="1"/>
+    <col min="13" max="13" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>551</v>
+        <v>514</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>552</v>
+        <v>515</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>553</v>
+        <v>516</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>554</v>
+        <v>517</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>555</v>
+        <v>518</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>556</v>
+        <v>519</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>557</v>
+        <v>520</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>558</v>
+        <v>521</v>
       </c>
       <c r="I1" t="s">
+        <v>522</v>
+      </c>
+      <c r="J1" t="s">
+        <v>523</v>
+      </c>
+      <c r="K1" t="s">
+        <v>524</v>
+      </c>
+      <c r="L1" t="s">
+        <v>525</v>
+      </c>
+      <c r="M1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2" t="s">
+        <v>489</v>
+      </c>
+      <c r="K2" t="s">
+        <v>435</v>
+      </c>
+      <c r="L2" t="s">
+        <v>503</v>
+      </c>
+      <c r="M2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>333</v>
+      </c>
+      <c r="J3" t="s">
+        <v>490</v>
+      </c>
+      <c r="K3" t="s">
+        <v>436</v>
+      </c>
+      <c r="M3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>334</v>
+      </c>
+      <c r="J4" t="s">
+        <v>491</v>
+      </c>
+      <c r="K4" t="s">
+        <v>437</v>
+      </c>
+      <c r="M4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>335</v>
+      </c>
+      <c r="J5" t="s">
+        <v>492</v>
+      </c>
+      <c r="K5" t="s">
+        <v>438</v>
+      </c>
+      <c r="M5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>336</v>
+      </c>
+      <c r="J6" t="s">
+        <v>493</v>
+      </c>
+      <c r="K6" t="s">
+        <v>439</v>
+      </c>
+      <c r="M6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>337</v>
+      </c>
+      <c r="J7" t="s">
+        <v>494</v>
+      </c>
+      <c r="K7" t="s">
+        <v>440</v>
+      </c>
+      <c r="M7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>338</v>
+      </c>
+      <c r="J8" t="s">
+        <v>495</v>
+      </c>
+      <c r="K8" t="s">
+        <v>441</v>
+      </c>
+      <c r="M8" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>339</v>
+      </c>
+      <c r="J9" t="s">
+        <v>496</v>
+      </c>
+      <c r="K9" t="s">
+        <v>442</v>
+      </c>
+      <c r="M9" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C10" t="s">
+        <v>313</v>
+      </c>
+      <c r="D10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>340</v>
+      </c>
+      <c r="J10" t="s">
+        <v>497</v>
+      </c>
+      <c r="K10" t="s">
+        <v>443</v>
+      </c>
+      <c r="M10" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C11" t="s">
+        <v>314</v>
+      </c>
+      <c r="D11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>341</v>
+      </c>
+      <c r="J11" t="s">
+        <v>498</v>
+      </c>
+      <c r="K11" t="s">
+        <v>444</v>
+      </c>
+      <c r="M11" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" t="s">
+        <v>315</v>
+      </c>
+      <c r="D12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" t="s">
+        <v>342</v>
+      </c>
+      <c r="J12" t="s">
+        <v>499</v>
+      </c>
+      <c r="K12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>328</v>
+      </c>
+      <c r="C13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>343</v>
+      </c>
+      <c r="J13" t="s">
+        <v>500</v>
+      </c>
+      <c r="K13" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" t="s">
+        <v>217</v>
+      </c>
+      <c r="E14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
+        <v>344</v>
+      </c>
+      <c r="J14" t="s">
+        <v>501</v>
+      </c>
+      <c r="K14" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C15" t="s">
+        <v>314</v>
+      </c>
+      <c r="D15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" t="s">
+        <v>345</v>
+      </c>
+      <c r="J15" t="s">
+        <v>502</v>
+      </c>
+      <c r="K15" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>331</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>346</v>
+      </c>
+      <c r="K16" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>326</v>
+      </c>
+      <c r="D17" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
+        <v>347</v>
+      </c>
+      <c r="K17" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>327</v>
+      </c>
+      <c r="D18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" t="s">
         <v>348</v>
       </c>
-      <c r="J1" t="s">
-        <v>559</v>
-      </c>
-      <c r="K1" t="s">
-        <v>560</v>
-      </c>
-      <c r="L1" t="s">
-        <v>561</v>
-      </c>
-      <c r="M1" t="s">
-        <v>562</v>
-      </c>
-      <c r="N1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="K18" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>328</v>
+      </c>
+      <c r="D19" t="s">
         <v>222</v>
       </c>
-      <c r="E2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s">
+        <v>349</v>
+      </c>
+      <c r="K19" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E20" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" t="s">
+        <v>350</v>
+      </c>
+      <c r="K20" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D21" t="s">
+        <v>224</v>
+      </c>
+      <c r="E21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s">
+        <v>351</v>
+      </c>
+      <c r="K21" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>331</v>
+      </c>
+      <c r="D22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s">
+        <v>352</v>
+      </c>
+      <c r="K22" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E23" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" t="s">
+        <v>353</v>
+      </c>
+      <c r="K23" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>227</v>
+      </c>
+      <c r="E24" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" t="s">
+        <v>354</v>
+      </c>
+      <c r="K24" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E25" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" t="s">
+        <v>355</v>
+      </c>
+      <c r="K25" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E26" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" t="s">
+        <v>356</v>
+      </c>
+      <c r="K26" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>230</v>
+      </c>
+      <c r="E27" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" t="s">
+        <v>357</v>
+      </c>
+      <c r="K27" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>231</v>
+      </c>
+      <c r="E28" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" t="s">
+        <v>358</v>
+      </c>
+      <c r="K28" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" t="s">
+        <v>157</v>
+      </c>
+      <c r="G29" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" t="s">
+        <v>359</v>
+      </c>
+      <c r="K29" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>233</v>
+      </c>
+      <c r="E30" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" t="s">
+        <v>360</v>
+      </c>
+      <c r="K30" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>233</v>
+      </c>
+      <c r="E31" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" t="s">
+        <v>117</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>360</v>
+      </c>
+      <c r="K31" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>234</v>
+      </c>
+      <c r="E32" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" t="s">
+        <v>118</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>361</v>
+      </c>
+      <c r="K32" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>235</v>
+      </c>
+      <c r="E33" t="s">
+        <v>161</v>
+      </c>
+      <c r="G33" t="s">
+        <v>119</v>
+      </c>
+      <c r="H33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" t="s">
+        <v>362</v>
+      </c>
+      <c r="K33" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>236</v>
+      </c>
+      <c r="E34" t="s">
+        <v>162</v>
+      </c>
+      <c r="G34" t="s">
+        <v>120</v>
+      </c>
+      <c r="H34" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" t="s">
+        <v>363</v>
+      </c>
+      <c r="K34" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E35" t="s">
+        <v>163</v>
+      </c>
+      <c r="G35" t="s">
+        <v>121</v>
+      </c>
+      <c r="H35" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" t="s">
+        <v>364</v>
+      </c>
+      <c r="K35" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>238</v>
+      </c>
+      <c r="E36" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" t="s">
+        <v>365</v>
+      </c>
+      <c r="K36" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>239</v>
+      </c>
+      <c r="E37" t="s">
+        <v>165</v>
+      </c>
+      <c r="G37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H37" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" t="s">
+        <v>366</v>
+      </c>
+      <c r="K37" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>240</v>
+      </c>
+      <c r="E38" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" t="s">
+        <v>367</v>
+      </c>
+      <c r="K38" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>241</v>
+      </c>
+      <c r="E39" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39" t="s">
+        <v>368</v>
+      </c>
+      <c r="K39" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>242</v>
+      </c>
+      <c r="E40" t="s">
+        <v>168</v>
+      </c>
+      <c r="G40" t="s">
         <v>101</v>
       </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>349</v>
-      </c>
-      <c r="J2" t="s">
-        <v>368</v>
-      </c>
-      <c r="K2" t="s">
-        <v>526</v>
-      </c>
-      <c r="L2" t="s">
-        <v>471</v>
-      </c>
-      <c r="M2" t="s">
-        <v>540</v>
-      </c>
-      <c r="N2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H40" t="s">
+        <v>55</v>
+      </c>
+      <c r="I40" t="s">
+        <v>369</v>
+      </c>
+      <c r="K40" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>243</v>
+      </c>
+      <c r="E41" t="s">
+        <v>169</v>
+      </c>
+      <c r="G41" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" t="s">
+        <v>370</v>
+      </c>
+      <c r="K41" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>244</v>
+      </c>
+      <c r="E42" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42" t="s">
         <v>102</v>
       </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>350</v>
-      </c>
-      <c r="J3" t="s">
-        <v>369</v>
-      </c>
-      <c r="K3" t="s">
-        <v>527</v>
-      </c>
-      <c r="L3" t="s">
-        <v>472</v>
-      </c>
-      <c r="N3" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C4" t="s">
-        <v>323</v>
-      </c>
-      <c r="D4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>351</v>
-      </c>
-      <c r="J4" t="s">
-        <v>370</v>
-      </c>
-      <c r="K4" t="s">
-        <v>528</v>
-      </c>
-      <c r="L4" t="s">
-        <v>473</v>
-      </c>
-      <c r="N4" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C5" t="s">
-        <v>324</v>
-      </c>
-      <c r="D5" t="s">
-        <v>225</v>
-      </c>
-      <c r="E5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H42" t="s">
+        <v>57</v>
+      </c>
+      <c r="I42" t="s">
+        <v>371</v>
+      </c>
+      <c r="K42" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>245</v>
+      </c>
+      <c r="E43" t="s">
+        <v>171</v>
+      </c>
+      <c r="G43" t="s">
         <v>104</v>
       </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>352</v>
-      </c>
-      <c r="J5" t="s">
-        <v>371</v>
-      </c>
-      <c r="K5" t="s">
-        <v>529</v>
-      </c>
-      <c r="L5" t="s">
-        <v>474</v>
-      </c>
-      <c r="N5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C6" t="s">
-        <v>325</v>
-      </c>
-      <c r="D6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H43" t="s">
+        <v>58</v>
+      </c>
+      <c r="I43" t="s">
+        <v>372</v>
+      </c>
+      <c r="K43" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>246</v>
+      </c>
+      <c r="E44" t="s">
+        <v>172</v>
+      </c>
+      <c r="G44" t="s">
         <v>105</v>
       </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>353</v>
-      </c>
-      <c r="J6" t="s">
-        <v>372</v>
-      </c>
-      <c r="K6" t="s">
-        <v>530</v>
-      </c>
-      <c r="L6" t="s">
-        <v>475</v>
-      </c>
-      <c r="N6" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>338</v>
-      </c>
-      <c r="C7" t="s">
-        <v>326</v>
-      </c>
-      <c r="D7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H44" t="s">
+        <v>59</v>
+      </c>
+      <c r="I44" t="s">
+        <v>373</v>
+      </c>
+      <c r="K44" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>247</v>
+      </c>
+      <c r="E45" t="s">
+        <v>173</v>
+      </c>
+      <c r="G45" t="s">
+        <v>107</v>
+      </c>
+      <c r="H45" t="s">
+        <v>60</v>
+      </c>
+      <c r="I45" t="s">
+        <v>374</v>
+      </c>
+      <c r="K45" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>248</v>
+      </c>
+      <c r="E46" t="s">
+        <v>174</v>
+      </c>
+      <c r="G46" t="s">
         <v>106</v>
       </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" t="s">
-        <v>354</v>
-      </c>
-      <c r="J7" t="s">
-        <v>373</v>
-      </c>
-      <c r="K7" t="s">
-        <v>531</v>
-      </c>
-      <c r="L7" t="s">
-        <v>476</v>
-      </c>
-      <c r="N7" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>339</v>
-      </c>
-      <c r="C8" t="s">
-        <v>327</v>
-      </c>
-      <c r="D8" t="s">
-        <v>228</v>
-      </c>
-      <c r="E8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" t="s">
-        <v>355</v>
-      </c>
-      <c r="J8" t="s">
-        <v>374</v>
-      </c>
-      <c r="K8" t="s">
-        <v>532</v>
-      </c>
-      <c r="L8" t="s">
-        <v>477</v>
-      </c>
-      <c r="N8" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>340</v>
-      </c>
-      <c r="C9" t="s">
-        <v>328</v>
-      </c>
-      <c r="D9" t="s">
-        <v>229</v>
-      </c>
-      <c r="E9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I46" t="s">
+        <v>375</v>
+      </c>
+      <c r="K46" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>249</v>
+      </c>
+      <c r="E47" t="s">
+        <v>175</v>
+      </c>
+      <c r="G47" t="s">
+        <v>109</v>
+      </c>
+      <c r="H47" t="s">
+        <v>62</v>
+      </c>
+      <c r="I47" t="s">
+        <v>376</v>
+      </c>
+      <c r="K47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>250</v>
+      </c>
+      <c r="E48" t="s">
+        <v>176</v>
+      </c>
+      <c r="G48" t="s">
         <v>108</v>
       </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" t="s">
-        <v>356</v>
-      </c>
-      <c r="J9" t="s">
-        <v>375</v>
-      </c>
-      <c r="K9" t="s">
-        <v>533</v>
-      </c>
-      <c r="L9" t="s">
-        <v>478</v>
-      </c>
-      <c r="N9" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>341</v>
-      </c>
-      <c r="C10" t="s">
-        <v>329</v>
-      </c>
-      <c r="D10" t="s">
-        <v>230</v>
-      </c>
-      <c r="E10" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H48" t="s">
+        <v>63</v>
+      </c>
+      <c r="I48" t="s">
+        <v>377</v>
+      </c>
+      <c r="K48" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>251</v>
+      </c>
+      <c r="E49" t="s">
+        <v>177</v>
+      </c>
+      <c r="G49" t="s">
+        <v>110</v>
+      </c>
+      <c r="H49" t="s">
+        <v>64</v>
+      </c>
+      <c r="I49" t="s">
+        <v>378</v>
+      </c>
+      <c r="K49" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>252</v>
+      </c>
+      <c r="E50" t="s">
+        <v>178</v>
+      </c>
+      <c r="G50" t="s">
+        <v>111</v>
+      </c>
+      <c r="H50" t="s">
+        <v>65</v>
+      </c>
+      <c r="I50" t="s">
+        <v>379</v>
+      </c>
+      <c r="K50" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>252</v>
+      </c>
+      <c r="E51" t="s">
+        <v>179</v>
+      </c>
+      <c r="G51" t="s">
+        <v>112</v>
+      </c>
+      <c r="H51" t="s">
+        <v>66</v>
+      </c>
+      <c r="I51" t="s">
+        <v>380</v>
+      </c>
+      <c r="K51" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>253</v>
+      </c>
+      <c r="E52" t="s">
+        <v>180</v>
+      </c>
+      <c r="G52" t="s">
+        <v>113</v>
+      </c>
+      <c r="H52" t="s">
+        <v>67</v>
+      </c>
+      <c r="I52" t="s">
+        <v>381</v>
+      </c>
+      <c r="K52" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>254</v>
+      </c>
+      <c r="E53" t="s">
+        <v>181</v>
+      </c>
+      <c r="G53" t="s">
+        <v>114</v>
+      </c>
+      <c r="H53" t="s">
+        <v>68</v>
+      </c>
+      <c r="I53" t="s">
+        <v>382</v>
+      </c>
+      <c r="K53" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="54" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>255</v>
+      </c>
+      <c r="E54" t="s">
+        <v>182</v>
+      </c>
+      <c r="G54" t="s">
+        <v>115</v>
+      </c>
+      <c r="H54" t="s">
+        <v>69</v>
+      </c>
+      <c r="I54" t="s">
+        <v>383</v>
+      </c>
+      <c r="K54" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="55" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>256</v>
+      </c>
+      <c r="E55" t="s">
+        <v>183</v>
+      </c>
+      <c r="G55" t="s">
+        <v>116</v>
+      </c>
+      <c r="H55" t="s">
+        <v>70</v>
+      </c>
+      <c r="I55" t="s">
+        <v>384</v>
+      </c>
+      <c r="K55" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="56" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>257</v>
+      </c>
+      <c r="E56" t="s">
+        <v>184</v>
+      </c>
+      <c r="G56" t="s">
+        <v>117</v>
+      </c>
+      <c r="H56" t="s">
+        <v>71</v>
+      </c>
+      <c r="I56" t="s">
+        <v>385</v>
+      </c>
+      <c r="K56" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="57" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>258</v>
+      </c>
+      <c r="E57" t="s">
+        <v>185</v>
+      </c>
+      <c r="G57" t="s">
+        <v>118</v>
+      </c>
+      <c r="H57" t="s">
+        <v>72</v>
+      </c>
+      <c r="I57" t="s">
+        <v>386</v>
+      </c>
+      <c r="K57" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="58" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>259</v>
+      </c>
+      <c r="E58" t="s">
+        <v>186</v>
+      </c>
+      <c r="G58" t="s">
+        <v>119</v>
+      </c>
+      <c r="H58" t="s">
+        <v>73</v>
+      </c>
+      <c r="I58" t="s">
+        <v>387</v>
+      </c>
+      <c r="K58" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="59" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>260</v>
+      </c>
+      <c r="E59" t="s">
+        <v>187</v>
+      </c>
+      <c r="G59" t="s">
+        <v>120</v>
+      </c>
+      <c r="H59" t="s">
+        <v>74</v>
+      </c>
+      <c r="I59" t="s">
+        <v>388</v>
+      </c>
+      <c r="K59" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="60" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>261</v>
+      </c>
+      <c r="E60" t="s">
+        <v>188</v>
+      </c>
+      <c r="G60" t="s">
+        <v>121</v>
+      </c>
+      <c r="H60" t="s">
+        <v>75</v>
+      </c>
+      <c r="I60" t="s">
+        <v>389</v>
+      </c>
+      <c r="K60" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="61" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>262</v>
+      </c>
+      <c r="E61" t="s">
+        <v>189</v>
+      </c>
+      <c r="G61" t="s">
+        <v>106</v>
+      </c>
+      <c r="H61" t="s">
+        <v>76</v>
+      </c>
+      <c r="I61" t="s">
+        <v>390</v>
+      </c>
+      <c r="K61" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="62" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>263</v>
+      </c>
+      <c r="E62" t="s">
+        <v>190</v>
+      </c>
+      <c r="G62" t="s">
         <v>109</v>
       </c>
-      <c r="H10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" t="s">
-        <v>357</v>
-      </c>
-      <c r="J10" t="s">
-        <v>376</v>
-      </c>
-      <c r="K10" t="s">
-        <v>534</v>
-      </c>
-      <c r="L10" t="s">
-        <v>479</v>
-      </c>
-      <c r="N10" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>342</v>
-      </c>
-      <c r="C11" t="s">
-        <v>330</v>
-      </c>
-      <c r="D11" t="s">
-        <v>230</v>
-      </c>
-      <c r="E11" t="s">
-        <v>152</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H62" t="s">
+        <v>77</v>
+      </c>
+      <c r="I62" t="s">
+        <v>391</v>
+      </c>
+      <c r="K62" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="63" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>264</v>
+      </c>
+      <c r="E63" t="s">
+        <v>191</v>
+      </c>
+      <c r="G63" t="s">
+        <v>108</v>
+      </c>
+      <c r="H63" t="s">
+        <v>78</v>
+      </c>
+      <c r="I63" t="s">
+        <v>392</v>
+      </c>
+      <c r="K63" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="64" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>265</v>
+      </c>
+      <c r="E64" t="s">
+        <v>192</v>
+      </c>
+      <c r="G64" t="s">
         <v>110</v>
       </c>
-      <c r="H11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" t="s">
-        <v>358</v>
-      </c>
-      <c r="J11" t="s">
-        <v>377</v>
-      </c>
-      <c r="K11" t="s">
-        <v>535</v>
-      </c>
-      <c r="L11" t="s">
-        <v>480</v>
-      </c>
-      <c r="N11" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>343</v>
-      </c>
-      <c r="C12" t="s">
-        <v>331</v>
-      </c>
-      <c r="D12" t="s">
-        <v>231</v>
-      </c>
-      <c r="E12" t="s">
-        <v>153</v>
-      </c>
-      <c r="G12" t="s">
-        <v>111</v>
-      </c>
-      <c r="H12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" t="s">
-        <v>359</v>
-      </c>
-      <c r="J12" t="s">
-        <v>378</v>
-      </c>
-      <c r="K12" t="s">
-        <v>536</v>
-      </c>
-      <c r="L12" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>344</v>
-      </c>
-      <c r="C13" t="s">
-        <v>329</v>
-      </c>
-      <c r="D13" t="s">
-        <v>232</v>
-      </c>
-      <c r="E13" t="s">
-        <v>154</v>
-      </c>
-      <c r="G13" t="s">
-        <v>112</v>
-      </c>
-      <c r="H13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" t="s">
-        <v>360</v>
-      </c>
-      <c r="J13" t="s">
-        <v>379</v>
-      </c>
-      <c r="K13" t="s">
-        <v>537</v>
-      </c>
-      <c r="L13" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>345</v>
-      </c>
-      <c r="C14" t="s">
-        <v>332</v>
-      </c>
-      <c r="D14" t="s">
-        <v>233</v>
-      </c>
-      <c r="E14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G14" t="s">
-        <v>113</v>
-      </c>
-      <c r="H14" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" t="s">
-        <v>361</v>
-      </c>
-      <c r="J14" t="s">
-        <v>380</v>
-      </c>
-      <c r="K14" t="s">
-        <v>538</v>
-      </c>
-      <c r="L14" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C15" t="s">
-        <v>330</v>
-      </c>
-      <c r="D15" t="s">
-        <v>234</v>
-      </c>
-      <c r="E15" t="s">
-        <v>156</v>
-      </c>
-      <c r="G15" t="s">
-        <v>114</v>
-      </c>
-      <c r="H15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" t="s">
-        <v>362</v>
-      </c>
-      <c r="J15" t="s">
-        <v>381</v>
-      </c>
-      <c r="K15" t="s">
-        <v>539</v>
-      </c>
-      <c r="L15" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>347</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D16" t="s">
-        <v>235</v>
-      </c>
-      <c r="E16" t="s">
-        <v>157</v>
-      </c>
-      <c r="G16" t="s">
-        <v>115</v>
-      </c>
-      <c r="H16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" t="s">
-        <v>363</v>
-      </c>
-      <c r="J16" t="s">
-        <v>382</v>
-      </c>
-      <c r="L16" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>342</v>
-      </c>
-      <c r="D17" t="s">
-        <v>236</v>
-      </c>
-      <c r="E17" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" t="s">
-        <v>364</v>
-      </c>
-      <c r="J17" t="s">
-        <v>383</v>
-      </c>
-      <c r="L17" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>343</v>
-      </c>
-      <c r="D18" t="s">
-        <v>237</v>
-      </c>
-      <c r="E18" t="s">
-        <v>159</v>
-      </c>
-      <c r="G18" t="s">
-        <v>117</v>
-      </c>
-      <c r="H18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s">
-        <v>365</v>
-      </c>
-      <c r="J18" t="s">
-        <v>384</v>
-      </c>
-      <c r="L18" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>344</v>
-      </c>
-      <c r="D19" t="s">
-        <v>238</v>
-      </c>
-      <c r="E19" t="s">
-        <v>160</v>
-      </c>
-      <c r="G19" t="s">
-        <v>118</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
-        <v>366</v>
-      </c>
-      <c r="J19" t="s">
-        <v>385</v>
-      </c>
-      <c r="L19" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>345</v>
-      </c>
-      <c r="D20" t="s">
-        <v>239</v>
-      </c>
-      <c r="E20" t="s">
-        <v>161</v>
-      </c>
-      <c r="G20" t="s">
-        <v>119</v>
-      </c>
-      <c r="H20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" t="s">
-        <v>367</v>
-      </c>
-      <c r="J20" t="s">
-        <v>386</v>
-      </c>
-      <c r="L20" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>346</v>
-      </c>
-      <c r="D21" t="s">
-        <v>240</v>
-      </c>
-      <c r="E21" t="s">
-        <v>162</v>
-      </c>
-      <c r="G21" t="s">
-        <v>120</v>
-      </c>
-      <c r="H21" t="s">
-        <v>49</v>
-      </c>
-      <c r="J21" t="s">
-        <v>387</v>
-      </c>
-      <c r="L21" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>347</v>
-      </c>
-      <c r="D22" t="s">
-        <v>241</v>
-      </c>
-      <c r="E22" t="s">
-        <v>163</v>
-      </c>
-      <c r="G22" t="s">
-        <v>121</v>
-      </c>
-      <c r="H22" t="s">
-        <v>50</v>
-      </c>
-      <c r="J22" t="s">
-        <v>388</v>
-      </c>
-      <c r="L22" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" t="s">
-        <v>242</v>
-      </c>
-      <c r="E23" t="s">
-        <v>164</v>
-      </c>
-      <c r="G23" t="s">
-        <v>122</v>
-      </c>
-      <c r="H23" t="s">
-        <v>51</v>
-      </c>
-      <c r="J23" t="s">
-        <v>389</v>
-      </c>
-      <c r="L23" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>243</v>
-      </c>
-      <c r="E24" t="s">
-        <v>165</v>
-      </c>
-      <c r="G24" t="s">
-        <v>123</v>
-      </c>
-      <c r="H24" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" t="s">
-        <v>390</v>
-      </c>
-      <c r="L24" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" t="s">
-        <v>244</v>
-      </c>
-      <c r="E25" t="s">
-        <v>166</v>
-      </c>
-      <c r="G25" t="s">
-        <v>124</v>
-      </c>
-      <c r="H25" t="s">
-        <v>53</v>
-      </c>
-      <c r="J25" t="s">
-        <v>391</v>
-      </c>
-      <c r="L25" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" t="s">
-        <v>245</v>
-      </c>
-      <c r="E26" t="s">
-        <v>167</v>
-      </c>
-      <c r="G26" t="s">
-        <v>125</v>
-      </c>
-      <c r="H26" t="s">
-        <v>54</v>
-      </c>
-      <c r="J26" t="s">
-        <v>392</v>
-      </c>
-      <c r="K26" t="s">
-        <v>525</v>
-      </c>
-      <c r="L26" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>246</v>
-      </c>
-      <c r="E27" t="s">
-        <v>168</v>
-      </c>
-      <c r="G27" t="s">
-        <v>126</v>
-      </c>
-      <c r="H27" t="s">
-        <v>55</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="H64" t="s">
+        <v>79</v>
+      </c>
+      <c r="I64" t="s">
         <v>393</v>
       </c>
-      <c r="K27" t="s">
-        <v>471</v>
-      </c>
-      <c r="L27" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" t="s">
-        <v>247</v>
-      </c>
-      <c r="E28" t="s">
-        <v>169</v>
-      </c>
-      <c r="G28" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28" t="s">
-        <v>56</v>
-      </c>
-      <c r="J28" t="s">
-        <v>394</v>
-      </c>
-      <c r="K28" t="s">
-        <v>472</v>
-      </c>
-      <c r="L28" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" t="s">
-        <v>248</v>
-      </c>
-      <c r="E29" t="s">
-        <v>170</v>
-      </c>
-      <c r="G29" t="s">
-        <v>128</v>
-      </c>
-      <c r="H29" t="s">
-        <v>57</v>
-      </c>
-      <c r="J29" t="s">
-        <v>395</v>
-      </c>
-      <c r="K29" t="s">
-        <v>473</v>
-      </c>
-      <c r="L29" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" t="s">
-        <v>249</v>
-      </c>
-      <c r="E30" t="s">
-        <v>171</v>
-      </c>
-      <c r="G30" t="s">
-        <v>129</v>
-      </c>
-      <c r="H30" t="s">
-        <v>58</v>
-      </c>
-      <c r="J30" t="s">
-        <v>396</v>
-      </c>
-      <c r="K30" t="s">
-        <v>474</v>
-      </c>
-      <c r="L30" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" t="s">
-        <v>249</v>
-      </c>
-      <c r="E31" t="s">
-        <v>172</v>
-      </c>
-      <c r="G31" t="s">
-        <v>130</v>
-      </c>
-      <c r="H31" t="s">
-        <v>59</v>
-      </c>
-      <c r="J31" t="s">
-        <v>396</v>
-      </c>
-      <c r="K31" t="s">
-        <v>475</v>
-      </c>
-      <c r="L31" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" t="s">
-        <v>250</v>
-      </c>
-      <c r="E32" t="s">
-        <v>173</v>
-      </c>
-      <c r="G32" t="s">
-        <v>131</v>
-      </c>
-      <c r="H32" t="s">
-        <v>60</v>
-      </c>
-      <c r="J32" t="s">
-        <v>397</v>
-      </c>
-      <c r="K32" t="s">
-        <v>476</v>
-      </c>
-      <c r="L32" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" t="s">
-        <v>251</v>
-      </c>
-      <c r="E33" t="s">
-        <v>174</v>
-      </c>
-      <c r="G33" t="s">
-        <v>132</v>
-      </c>
-      <c r="H33" t="s">
-        <v>61</v>
-      </c>
-      <c r="J33" t="s">
-        <v>398</v>
-      </c>
-      <c r="K33" t="s">
-        <v>477</v>
-      </c>
-      <c r="L33" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" t="s">
-        <v>252</v>
-      </c>
-      <c r="E34" t="s">
-        <v>175</v>
-      </c>
-      <c r="G34" t="s">
-        <v>133</v>
-      </c>
-      <c r="H34" t="s">
-        <v>62</v>
-      </c>
-      <c r="J34" t="s">
-        <v>399</v>
-      </c>
-      <c r="K34" t="s">
-        <v>478</v>
-      </c>
-      <c r="L34" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>253</v>
-      </c>
-      <c r="E35" t="s">
-        <v>176</v>
-      </c>
-      <c r="G35" t="s">
-        <v>134</v>
-      </c>
-      <c r="H35" t="s">
-        <v>63</v>
-      </c>
-      <c r="J35" t="s">
-        <v>400</v>
-      </c>
-      <c r="K35" t="s">
-        <v>479</v>
-      </c>
-      <c r="L35" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" t="s">
-        <v>254</v>
-      </c>
-      <c r="E36" t="s">
-        <v>177</v>
-      </c>
-      <c r="G36" t="s">
-        <v>110</v>
-      </c>
-      <c r="H36" t="s">
-        <v>64</v>
-      </c>
-      <c r="J36" t="s">
-        <v>401</v>
-      </c>
-      <c r="K36" t="s">
-        <v>480</v>
-      </c>
-      <c r="L36" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" t="s">
-        <v>255</v>
-      </c>
-      <c r="E37" t="s">
-        <v>178</v>
-      </c>
-      <c r="G37" t="s">
-        <v>111</v>
-      </c>
-      <c r="H37" t="s">
-        <v>65</v>
-      </c>
-      <c r="J37" t="s">
-        <v>402</v>
-      </c>
-      <c r="K37" t="s">
-        <v>481</v>
-      </c>
-      <c r="L37" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>256</v>
-      </c>
-      <c r="E38" t="s">
-        <v>179</v>
-      </c>
-      <c r="G38" t="s">
-        <v>112</v>
-      </c>
-      <c r="H38" t="s">
-        <v>66</v>
-      </c>
-      <c r="J38" t="s">
-        <v>403</v>
-      </c>
-      <c r="K38" t="s">
-        <v>482</v>
-      </c>
-      <c r="L38" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>257</v>
-      </c>
-      <c r="E39" t="s">
-        <v>180</v>
-      </c>
-      <c r="G39" t="s">
-        <v>113</v>
-      </c>
-      <c r="H39" t="s">
-        <v>67</v>
-      </c>
-      <c r="J39" t="s">
-        <v>404</v>
-      </c>
-      <c r="K39" t="s">
-        <v>483</v>
-      </c>
-      <c r="L39" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" t="s">
-        <v>258</v>
-      </c>
-      <c r="E40" t="s">
-        <v>181</v>
-      </c>
-      <c r="G40" t="s">
-        <v>114</v>
-      </c>
-      <c r="H40" t="s">
-        <v>68</v>
-      </c>
-      <c r="J40" t="s">
-        <v>405</v>
-      </c>
-      <c r="K40" t="s">
-        <v>484</v>
-      </c>
-      <c r="L40" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" t="s">
-        <v>259</v>
-      </c>
-      <c r="E41" t="s">
-        <v>182</v>
-      </c>
-      <c r="G41" t="s">
-        <v>116</v>
-      </c>
-      <c r="H41" t="s">
-        <v>69</v>
-      </c>
-      <c r="J41" t="s">
-        <v>406</v>
-      </c>
-      <c r="K41" t="s">
-        <v>485</v>
-      </c>
-      <c r="L41" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" t="s">
-        <v>260</v>
-      </c>
-      <c r="E42" t="s">
-        <v>183</v>
-      </c>
-      <c r="G42" t="s">
-        <v>115</v>
-      </c>
-      <c r="H42" t="s">
-        <v>70</v>
-      </c>
-      <c r="J42" t="s">
-        <v>407</v>
-      </c>
-      <c r="K42" t="s">
-        <v>486</v>
-      </c>
-      <c r="L42" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D43" t="s">
-        <v>261</v>
-      </c>
-      <c r="E43" t="s">
-        <v>184</v>
-      </c>
-      <c r="G43" t="s">
-        <v>117</v>
-      </c>
-      <c r="H43" t="s">
-        <v>71</v>
-      </c>
-      <c r="J43" t="s">
-        <v>408</v>
-      </c>
-      <c r="K43" t="s">
-        <v>487</v>
-      </c>
-      <c r="L43" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" t="s">
-        <v>262</v>
-      </c>
-      <c r="E44" t="s">
-        <v>185</v>
-      </c>
-      <c r="G44" t="s">
-        <v>118</v>
-      </c>
-      <c r="H44" t="s">
-        <v>72</v>
-      </c>
-      <c r="J44" t="s">
-        <v>409</v>
-      </c>
-      <c r="K44" t="s">
-        <v>488</v>
-      </c>
-      <c r="L44" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" t="s">
-        <v>263</v>
-      </c>
-      <c r="E45" t="s">
-        <v>186</v>
-      </c>
-      <c r="G45" t="s">
-        <v>120</v>
-      </c>
-      <c r="H45" t="s">
-        <v>73</v>
-      </c>
-      <c r="J45" t="s">
-        <v>410</v>
-      </c>
-      <c r="K45" t="s">
-        <v>489</v>
-      </c>
-      <c r="L45" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" t="s">
-        <v>264</v>
-      </c>
-      <c r="E46" t="s">
-        <v>187</v>
-      </c>
-      <c r="G46" t="s">
-        <v>119</v>
-      </c>
-      <c r="H46" t="s">
-        <v>74</v>
-      </c>
-      <c r="J46" t="s">
-        <v>411</v>
-      </c>
-      <c r="K46" t="s">
-        <v>490</v>
-      </c>
-      <c r="L46" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" t="s">
-        <v>265</v>
-      </c>
-      <c r="E47" t="s">
-        <v>188</v>
-      </c>
-      <c r="G47" t="s">
-        <v>122</v>
-      </c>
-      <c r="H47" t="s">
-        <v>75</v>
-      </c>
-      <c r="J47" t="s">
-        <v>412</v>
-      </c>
-      <c r="K47" t="s">
-        <v>491</v>
-      </c>
-      <c r="L47" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" t="s">
-        <v>266</v>
-      </c>
-      <c r="E48" t="s">
-        <v>189</v>
-      </c>
-      <c r="G48" t="s">
-        <v>121</v>
-      </c>
-      <c r="H48" t="s">
-        <v>76</v>
-      </c>
-      <c r="J48" t="s">
-        <v>413</v>
-      </c>
-      <c r="K48" t="s">
-        <v>492</v>
-      </c>
-      <c r="L48" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" t="s">
-        <v>267</v>
-      </c>
-      <c r="E49" t="s">
-        <v>190</v>
-      </c>
-      <c r="G49" t="s">
-        <v>123</v>
-      </c>
-      <c r="H49" t="s">
-        <v>77</v>
-      </c>
-      <c r="J49" t="s">
-        <v>414</v>
-      </c>
-      <c r="K49" t="s">
-        <v>493</v>
-      </c>
-      <c r="L49" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" t="s">
-        <v>268</v>
-      </c>
-      <c r="E50" t="s">
-        <v>191</v>
-      </c>
-      <c r="G50" t="s">
-        <v>124</v>
-      </c>
-      <c r="H50" t="s">
-        <v>78</v>
-      </c>
-      <c r="J50" t="s">
-        <v>415</v>
-      </c>
-      <c r="K50" t="s">
-        <v>494</v>
-      </c>
-      <c r="L50" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>23</v>
-      </c>
-      <c r="D51" t="s">
-        <v>268</v>
-      </c>
-      <c r="E51" t="s">
-        <v>192</v>
-      </c>
-      <c r="G51" t="s">
-        <v>125</v>
-      </c>
-      <c r="H51" t="s">
-        <v>79</v>
-      </c>
-      <c r="J51" t="s">
-        <v>416</v>
-      </c>
-      <c r="K51" t="s">
-        <v>495</v>
-      </c>
-      <c r="L51" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>269</v>
-      </c>
-      <c r="E52" t="s">
-        <v>193</v>
-      </c>
-      <c r="G52" t="s">
-        <v>126</v>
-      </c>
-      <c r="H52" t="s">
-        <v>80</v>
-      </c>
-      <c r="J52" t="s">
-        <v>417</v>
-      </c>
-      <c r="K52" t="s">
-        <v>496</v>
-      </c>
-      <c r="L52" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
-        <v>270</v>
-      </c>
-      <c r="E53" t="s">
-        <v>194</v>
-      </c>
-      <c r="G53" t="s">
-        <v>127</v>
-      </c>
-      <c r="H53" t="s">
-        <v>81</v>
-      </c>
-      <c r="J53" t="s">
-        <v>418</v>
-      </c>
-      <c r="K53" t="s">
-        <v>497</v>
-      </c>
-      <c r="L53" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>271</v>
-      </c>
-      <c r="E54" t="s">
-        <v>195</v>
-      </c>
-      <c r="G54" t="s">
-        <v>128</v>
-      </c>
-      <c r="H54" t="s">
-        <v>82</v>
-      </c>
-      <c r="J54" t="s">
-        <v>419</v>
-      </c>
-      <c r="K54" t="s">
-        <v>498</v>
-      </c>
-      <c r="L54" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>272</v>
-      </c>
-      <c r="E55" t="s">
-        <v>196</v>
-      </c>
-      <c r="G55" t="s">
-        <v>129</v>
-      </c>
-      <c r="H55" t="s">
-        <v>83</v>
-      </c>
-      <c r="J55" t="s">
-        <v>420</v>
-      </c>
-      <c r="K55" t="s">
-        <v>499</v>
-      </c>
-      <c r="L55" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
-        <v>273</v>
-      </c>
-      <c r="E56" t="s">
-        <v>197</v>
-      </c>
-      <c r="G56" t="s">
-        <v>130</v>
-      </c>
-      <c r="H56" t="s">
-        <v>84</v>
-      </c>
-      <c r="J56" t="s">
-        <v>421</v>
-      </c>
-      <c r="K56" t="s">
-        <v>500</v>
-      </c>
-      <c r="L56" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>274</v>
-      </c>
-      <c r="E57" t="s">
-        <v>198</v>
-      </c>
-      <c r="G57" t="s">
-        <v>131</v>
-      </c>
-      <c r="H57" t="s">
-        <v>85</v>
-      </c>
-      <c r="J57" t="s">
-        <v>422</v>
-      </c>
-      <c r="K57" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
-        <v>275</v>
-      </c>
-      <c r="E58" t="s">
-        <v>199</v>
-      </c>
-      <c r="G58" t="s">
-        <v>132</v>
-      </c>
-      <c r="H58" t="s">
-        <v>86</v>
-      </c>
-      <c r="J58" t="s">
-        <v>423</v>
-      </c>
-      <c r="K58" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
-        <v>276</v>
-      </c>
-      <c r="E59" t="s">
-        <v>200</v>
-      </c>
-      <c r="G59" t="s">
-        <v>133</v>
-      </c>
-      <c r="H59" t="s">
-        <v>87</v>
-      </c>
-      <c r="J59" t="s">
-        <v>424</v>
-      </c>
-      <c r="K59" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>277</v>
-      </c>
-      <c r="E60" t="s">
-        <v>201</v>
-      </c>
-      <c r="G60" t="s">
-        <v>134</v>
-      </c>
-      <c r="H60" t="s">
-        <v>88</v>
-      </c>
-      <c r="J60" t="s">
-        <v>425</v>
-      </c>
-      <c r="K60" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
-        <v>278</v>
-      </c>
-      <c r="E61" t="s">
-        <v>202</v>
-      </c>
-      <c r="G61" t="s">
-        <v>119</v>
-      </c>
-      <c r="H61" t="s">
-        <v>89</v>
-      </c>
-      <c r="J61" t="s">
-        <v>426</v>
-      </c>
-      <c r="K61" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
-        <v>279</v>
-      </c>
-      <c r="E62" t="s">
-        <v>203</v>
-      </c>
-      <c r="G62" t="s">
-        <v>122</v>
-      </c>
-      <c r="H62" t="s">
-        <v>90</v>
-      </c>
-      <c r="J62" t="s">
-        <v>427</v>
-      </c>
-      <c r="K62" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
-        <v>280</v>
-      </c>
-      <c r="E63" t="s">
-        <v>204</v>
-      </c>
-      <c r="G63" t="s">
-        <v>121</v>
-      </c>
-      <c r="H63" t="s">
-        <v>91</v>
-      </c>
-      <c r="J63" t="s">
-        <v>428</v>
-      </c>
-      <c r="K63" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
-        <v>281</v>
-      </c>
-      <c r="E64" t="s">
-        <v>205</v>
-      </c>
-      <c r="G64" t="s">
-        <v>123</v>
-      </c>
-      <c r="H64" t="s">
-        <v>92</v>
-      </c>
-      <c r="J64" t="s">
-        <v>429</v>
-      </c>
       <c r="K64" t="s">
-        <v>508</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E65" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="G65" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="H65" t="s">
-        <v>93</v>
-      </c>
-      <c r="J65" t="s">
-        <v>430</v>
+        <v>80</v>
+      </c>
+      <c r="I65" t="s">
+        <v>394</v>
       </c>
       <c r="K65" t="s">
-        <v>509</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="E66" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="G66" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="H66" t="s">
-        <v>94</v>
-      </c>
-      <c r="J66" t="s">
-        <v>431</v>
+        <v>81</v>
+      </c>
+      <c r="I66" t="s">
+        <v>395</v>
       </c>
       <c r="K66" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
     </row>
     <row r="67" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="E67" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G67" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="H67" t="s">
-        <v>95</v>
-      </c>
-      <c r="J67" t="s">
-        <v>432</v>
+        <v>82</v>
+      </c>
+      <c r="I67" t="s">
+        <v>396</v>
       </c>
       <c r="K67" t="s">
-        <v>511</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="E68" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="G68" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="H68" t="s">
-        <v>96</v>
-      </c>
-      <c r="J68" t="s">
-        <v>433</v>
+        <v>83</v>
+      </c>
+      <c r="I68" t="s">
+        <v>397</v>
       </c>
       <c r="K68" t="s">
-        <v>512</v>
+        <v>446</v>
       </c>
     </row>
     <row r="69" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="E69" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="G69" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="H69" t="s">
-        <v>97</v>
-      </c>
-      <c r="J69" t="s">
-        <v>434</v>
+        <v>84</v>
+      </c>
+      <c r="I69" t="s">
+        <v>398</v>
       </c>
       <c r="K69" t="s">
-        <v>512</v>
+        <v>447</v>
       </c>
     </row>
     <row r="70" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="E70" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="G70" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="H70" t="s">
-        <v>98</v>
-      </c>
-      <c r="J70" t="s">
-        <v>435</v>
+        <v>85</v>
+      </c>
+      <c r="I70" t="s">
+        <v>399</v>
       </c>
       <c r="K70" t="s">
-        <v>513</v>
+        <v>448</v>
       </c>
     </row>
     <row r="71" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="E71" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="G71" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="H71" t="s">
-        <v>99</v>
-      </c>
-      <c r="J71" t="s">
-        <v>436</v>
+        <v>86</v>
+      </c>
+      <c r="I71" t="s">
+        <v>400</v>
       </c>
       <c r="K71" t="s">
-        <v>514</v>
+        <v>449</v>
       </c>
     </row>
     <row r="72" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="E72" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="G72" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="H72" t="s">
-        <v>100</v>
-      </c>
-      <c r="J72" t="s">
-        <v>437</v>
+        <v>87</v>
+      </c>
+      <c r="I72" t="s">
+        <v>401</v>
       </c>
       <c r="K72" t="s">
-        <v>515</v>
+        <v>450</v>
       </c>
     </row>
     <row r="73" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="E73" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="G73" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="H73" t="s">
-        <v>2</v>
-      </c>
-      <c r="J73" t="s">
-        <v>438</v>
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>402</v>
       </c>
       <c r="K73" t="s">
-        <v>516</v>
+        <v>451</v>
       </c>
     </row>
     <row r="74" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E74" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="G74" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="H74" t="s">
-        <v>39</v>
-      </c>
-      <c r="J74" t="s">
-        <v>439</v>
+        <v>26</v>
+      </c>
+      <c r="I74" t="s">
+        <v>403</v>
       </c>
       <c r="K74" t="s">
-        <v>517</v>
+        <v>452</v>
       </c>
     </row>
     <row r="75" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E75" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="G75" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="H75" t="s">
-        <v>40</v>
-      </c>
-      <c r="J75" t="s">
-        <v>440</v>
+        <v>27</v>
+      </c>
+      <c r="I75" t="s">
+        <v>404</v>
       </c>
       <c r="K75" t="s">
-        <v>518</v>
+        <v>453</v>
       </c>
     </row>
     <row r="76" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="E76" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="G76" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="H76" t="s">
-        <v>41</v>
-      </c>
-      <c r="J76" t="s">
-        <v>441</v>
+        <v>28</v>
+      </c>
+      <c r="I76" t="s">
+        <v>405</v>
       </c>
       <c r="K76" t="s">
-        <v>519</v>
+        <v>454</v>
       </c>
     </row>
     <row r="77" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="E77" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="G77" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="H77" t="s">
-        <v>42</v>
-      </c>
-      <c r="J77" t="s">
-        <v>442</v>
+        <v>29</v>
+      </c>
+      <c r="I77" t="s">
+        <v>406</v>
       </c>
       <c r="K77" t="s">
-        <v>520</v>
+        <v>455</v>
       </c>
     </row>
     <row r="78" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="E78" t="s">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="G78" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="H78" t="s">
-        <v>43</v>
-      </c>
-      <c r="J78" t="s">
-        <v>443</v>
+        <v>30</v>
+      </c>
+      <c r="I78" t="s">
+        <v>407</v>
       </c>
       <c r="K78" t="s">
-        <v>521</v>
+        <v>456</v>
       </c>
     </row>
     <row r="79" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="E79" t="s">
-        <v>220</v>
+        <v>141</v>
       </c>
       <c r="G79" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="H79" t="s">
-        <v>45</v>
-      </c>
-      <c r="J79" t="s">
-        <v>444</v>
+        <v>32</v>
+      </c>
+      <c r="I79" t="s">
+        <v>408</v>
       </c>
       <c r="K79" t="s">
-        <v>522</v>
+        <v>457</v>
       </c>
     </row>
     <row r="80" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="E80" t="s">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="G80" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="H80" t="s">
-        <v>46</v>
-      </c>
-      <c r="J80" t="s">
-        <v>445</v>
+        <v>33</v>
+      </c>
+      <c r="I80" t="s">
+        <v>409</v>
       </c>
       <c r="K80" t="s">
-        <v>523</v>
+        <v>458</v>
       </c>
     </row>
     <row r="81" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="E81" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="H81" t="s">
-        <v>50</v>
-      </c>
-      <c r="J81" t="s">
-        <v>446</v>
+        <v>37</v>
+      </c>
+      <c r="I81" t="s">
+        <v>410</v>
       </c>
       <c r="K81" t="s">
-        <v>524</v>
+        <v>459</v>
       </c>
     </row>
     <row r="82" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="E82" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H82" t="s">
-        <v>67</v>
-      </c>
-      <c r="J82" t="s">
-        <v>447</v>
+        <v>54</v>
+      </c>
+      <c r="I82" t="s">
+        <v>411</v>
+      </c>
+      <c r="K82" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="83" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="E83" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
-      </c>
-      <c r="J83" t="s">
-        <v>448</v>
+        <v>34</v>
+      </c>
+      <c r="I83" t="s">
+        <v>412</v>
+      </c>
+      <c r="K83" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="84" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="E84" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="H84" t="s">
-        <v>48</v>
-      </c>
-      <c r="J84" t="s">
-        <v>449</v>
+        <v>35</v>
+      </c>
+      <c r="I84" t="s">
+        <v>413</v>
+      </c>
+      <c r="K84" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="85" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="E85" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H85" t="s">
-        <v>49</v>
-      </c>
-      <c r="J85" t="s">
-        <v>450</v>
+        <v>36</v>
+      </c>
+      <c r="I85" t="s">
+        <v>414</v>
+      </c>
+      <c r="K85" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="86" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="E86" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H86" t="s">
-        <v>51</v>
-      </c>
-      <c r="J86" t="s">
-        <v>451</v>
+        <v>38</v>
+      </c>
+      <c r="I86" t="s">
+        <v>415</v>
+      </c>
+      <c r="K86" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="87" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="E87" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H87" t="s">
-        <v>53</v>
-      </c>
-      <c r="J87" t="s">
-        <v>452</v>
+        <v>40</v>
+      </c>
+      <c r="I87" t="s">
+        <v>416</v>
+      </c>
+      <c r="K87" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="88" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="E88" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="H88" t="s">
-        <v>52</v>
-      </c>
-      <c r="J88" t="s">
-        <v>453</v>
+        <v>39</v>
+      </c>
+      <c r="I88" t="s">
+        <v>417</v>
+      </c>
+      <c r="K88" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="89" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="E89" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H89" t="s">
-        <v>54</v>
-      </c>
-      <c r="J89" t="s">
-        <v>454</v>
+        <v>41</v>
+      </c>
+      <c r="I89" t="s">
+        <v>418</v>
+      </c>
+      <c r="K89" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="90" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="E90" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H90" t="s">
-        <v>56</v>
-      </c>
-      <c r="J90" t="s">
-        <v>455</v>
+        <v>43</v>
+      </c>
+      <c r="I90" t="s">
+        <v>419</v>
+      </c>
+      <c r="K90" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="91" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="E91" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="H91" t="s">
-        <v>55</v>
-      </c>
-      <c r="J91" t="s">
-        <v>456</v>
+        <v>42</v>
+      </c>
+      <c r="I91" t="s">
+        <v>420</v>
+      </c>
+      <c r="K91" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="92" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="E92" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="H92" t="s">
-        <v>44</v>
-      </c>
-      <c r="J92" t="s">
-        <v>457</v>
+        <v>31</v>
+      </c>
+      <c r="I92" t="s">
+        <v>421</v>
+      </c>
+      <c r="K92" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="93" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="E93" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="H93" t="s">
-        <v>57</v>
-      </c>
-      <c r="J93" t="s">
-        <v>458</v>
+        <v>44</v>
+      </c>
+      <c r="I93" t="s">
+        <v>422</v>
+      </c>
+      <c r="K93" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="94" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="E94" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="H94" t="s">
-        <v>58</v>
-      </c>
-      <c r="J94" t="s">
-        <v>459</v>
+        <v>45</v>
+      </c>
+      <c r="I94" t="s">
+        <v>423</v>
+      </c>
+      <c r="K94" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="95" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="E95" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="H95" t="s">
-        <v>60</v>
-      </c>
-      <c r="J95" t="s">
-        <v>460</v>
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>424</v>
+      </c>
+      <c r="K95" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="96" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="E96" t="s">
+        <v>157</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>425</v>
+      </c>
+      <c r="K96" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="97" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>298</v>
+      </c>
+      <c r="E97" t="s">
+        <v>158</v>
+      </c>
+      <c r="H97" t="s">
+        <v>48</v>
+      </c>
+      <c r="I97" t="s">
+        <v>426</v>
+      </c>
+      <c r="K97" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="98" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>299</v>
+      </c>
+      <c r="E98" t="s">
+        <v>159</v>
+      </c>
+      <c r="H98" t="s">
+        <v>49</v>
+      </c>
+      <c r="I98" t="s">
+        <v>427</v>
+      </c>
+      <c r="K98" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="99" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>300</v>
+      </c>
+      <c r="E99" t="s">
+        <v>160</v>
+      </c>
+      <c r="H99" t="s">
+        <v>50</v>
+      </c>
+      <c r="I99" t="s">
+        <v>428</v>
+      </c>
+      <c r="K99" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="100" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>301</v>
+      </c>
+      <c r="E100" t="s">
+        <v>161</v>
+      </c>
+      <c r="H100" t="s">
+        <v>51</v>
+      </c>
+      <c r="I100" t="s">
+        <v>429</v>
+      </c>
+      <c r="K100" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="101" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>302</v>
+      </c>
+      <c r="E101" t="s">
+        <v>162</v>
+      </c>
+      <c r="H101" t="s">
+        <v>52</v>
+      </c>
+      <c r="I101" t="s">
+        <v>430</v>
+      </c>
+      <c r="K101" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="102" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>216</v>
+      </c>
+      <c r="E102" t="s">
+        <v>163</v>
+      </c>
+      <c r="H102" t="s">
+        <v>53</v>
+      </c>
+      <c r="I102" t="s">
+        <v>431</v>
+      </c>
+      <c r="K102" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="103" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>215</v>
+      </c>
+      <c r="E103" t="s">
+        <v>164</v>
+      </c>
+      <c r="H103" t="s">
+        <v>55</v>
+      </c>
+      <c r="I103" t="s">
+        <v>432</v>
+      </c>
+      <c r="K103" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="104" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>217</v>
+      </c>
+      <c r="E104" t="s">
+        <v>165</v>
+      </c>
+      <c r="H104" t="s">
+        <v>56</v>
+      </c>
+      <c r="I104" t="s">
+        <v>433</v>
+      </c>
+      <c r="K104" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="105" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>218</v>
+      </c>
+      <c r="E105" t="s">
+        <v>166</v>
+      </c>
+      <c r="H105" t="s">
+        <v>57</v>
+      </c>
+      <c r="I105" t="s">
+        <v>434</v>
+      </c>
+      <c r="K105" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="106" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>219</v>
+      </c>
+      <c r="E106" t="s">
         <v>167</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H106" t="s">
+        <v>58</v>
+      </c>
+      <c r="K106" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="107" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>220</v>
+      </c>
+      <c r="E107" t="s">
+        <v>168</v>
+      </c>
+      <c r="H107" t="s">
         <v>59</v>
       </c>
-      <c r="J96" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="97" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D97" t="s">
-        <v>314</v>
-      </c>
-      <c r="E97" t="s">
-        <v>168</v>
-      </c>
-      <c r="H97" t="s">
+      <c r="K107" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="108" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>221</v>
+      </c>
+      <c r="E108" t="s">
+        <v>169</v>
+      </c>
+      <c r="H108" t="s">
+        <v>60</v>
+      </c>
+      <c r="K108" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="109" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>223</v>
+      </c>
+      <c r="E109" t="s">
+        <v>170</v>
+      </c>
+      <c r="H109" t="s">
+        <v>63</v>
+      </c>
+      <c r="K109" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="110" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>224</v>
+      </c>
+      <c r="E110" t="s">
+        <v>171</v>
+      </c>
+      <c r="H110" t="s">
         <v>61</v>
       </c>
-      <c r="J97" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="98" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D98" t="s">
-        <v>315</v>
-      </c>
-      <c r="E98" t="s">
-        <v>169</v>
-      </c>
-      <c r="H98" t="s">
+      <c r="K110" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="111" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>224</v>
+      </c>
+      <c r="E111" t="s">
+        <v>172</v>
+      </c>
+      <c r="H111" t="s">
         <v>62</v>
       </c>
-      <c r="J98" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="99" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D99" t="s">
-        <v>316</v>
-      </c>
-      <c r="E99" t="s">
-        <v>170</v>
-      </c>
-      <c r="H99" t="s">
-        <v>63</v>
-      </c>
-      <c r="J99" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="100" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D100" t="s">
-        <v>317</v>
-      </c>
-      <c r="E100" t="s">
-        <v>171</v>
-      </c>
-      <c r="H100" t="s">
+      <c r="K111" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="112" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>225</v>
+      </c>
+      <c r="E112" t="s">
+        <v>173</v>
+      </c>
+      <c r="H112" t="s">
         <v>64</v>
-      </c>
-      <c r="J100" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="101" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D101" t="s">
-        <v>318</v>
-      </c>
-      <c r="E101" t="s">
-        <v>172</v>
-      </c>
-      <c r="H101" t="s">
-        <v>65</v>
-      </c>
-      <c r="J101" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="102" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D102" t="s">
-        <v>232</v>
-      </c>
-      <c r="E102" t="s">
-        <v>173</v>
-      </c>
-      <c r="H102" t="s">
-        <v>66</v>
-      </c>
-      <c r="J102" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="103" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D103" t="s">
-        <v>231</v>
-      </c>
-      <c r="E103" t="s">
-        <v>174</v>
-      </c>
-      <c r="H103" t="s">
-        <v>68</v>
-      </c>
-      <c r="J103" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="104" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D104" t="s">
-        <v>233</v>
-      </c>
-      <c r="E104" t="s">
-        <v>175</v>
-      </c>
-      <c r="H104" t="s">
-        <v>69</v>
-      </c>
-      <c r="J104" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="105" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D105" t="s">
-        <v>234</v>
-      </c>
-      <c r="E105" t="s">
-        <v>176</v>
-      </c>
-      <c r="H105" t="s">
-        <v>70</v>
-      </c>
-      <c r="J105" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="106" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D106" t="s">
-        <v>235</v>
-      </c>
-      <c r="E106" t="s">
-        <v>177</v>
-      </c>
-      <c r="H106" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="107" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D107" t="s">
-        <v>236</v>
-      </c>
-      <c r="E107" t="s">
-        <v>178</v>
-      </c>
-      <c r="H107" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="108" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D108" t="s">
-        <v>237</v>
-      </c>
-      <c r="E108" t="s">
-        <v>179</v>
-      </c>
-      <c r="H108" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="109" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D109" t="s">
-        <v>239</v>
-      </c>
-      <c r="E109" t="s">
-        <v>180</v>
-      </c>
-      <c r="H109" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="110" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D110" t="s">
-        <v>240</v>
-      </c>
-      <c r="E110" t="s">
-        <v>181</v>
-      </c>
-      <c r="H110" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="111" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D111" t="s">
-        <v>240</v>
-      </c>
-      <c r="E111" t="s">
-        <v>182</v>
-      </c>
-      <c r="H111" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="112" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D112" t="s">
-        <v>241</v>
-      </c>
-      <c r="E112" t="s">
-        <v>183</v>
-      </c>
-      <c r="H112" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="113" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D113" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E113" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H113" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D114" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E114" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="H114" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="115" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E115" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="H115" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="E116" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="H116" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E117" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="H117" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E118" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="H118" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="E119" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H119" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="120" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="E120" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H120" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="121" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="E121" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="H121" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E122" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="H122" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="123" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="E123" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="H123" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="E124" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="H124" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="125" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="E125" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="H125" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E126" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="H126" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="127" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E127" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="H127" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="128" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="E128" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="H128" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="129" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E129" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="H129" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="130" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E130" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="H130" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="131" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="E131" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="H131" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="132" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="E132" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="H132" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="133" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E133" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="H133" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="134" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="E134" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="H134" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="135" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="E135" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="H135" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="136" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D136" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="E136" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="H136" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D137" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="E137" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="H137" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="138" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D138" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="E138" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="H138" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="139" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="E139" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="H139" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="140" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E140" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="H140" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D141" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E141" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="H141" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="142" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="E142" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="H142" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D143" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="E143" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="H143" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="E144" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="H144" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="145" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D145" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="E145" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="H145" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="146" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E146" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="H146" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="147" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D147" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="E147" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="H147" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="148" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="E148" t="s">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c r="H148" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="149" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="E149" t="s">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="H149" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="150" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D150" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="E150" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="H150" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="151" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D151" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="E151" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H151" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="152" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="E152" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="H152" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="E153" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="H153" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="154" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D154" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="E154" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H154" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E155" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H155" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="156" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D156" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="E156" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H156" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="157" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D157" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="E157" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="H157" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="158" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="E158" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="H158" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="159" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D159" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="E159" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H159" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="160" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D160" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="E160" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H160" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="161" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D161" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="E161" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="H161" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="162" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D162" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="E162" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H162" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="163" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D163" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="E163" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H163" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="164" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D164" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E164" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="H164" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="165" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D165" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E165" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H165" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="166" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D166" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="E166" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H166" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="167" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="E167" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H167" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="168" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D168" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="E168" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H168" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="169" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D169" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="E169" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H169" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="170" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D170" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="E170" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H170" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="171" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D171" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="E171" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="H171" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="172" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D172" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="E172" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="H172" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="173" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D173" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="E173" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H173" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="174" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D174" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="E174" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H174" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="175" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D175" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="E175" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="H175" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="176" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D176" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="E176" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="H176" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="177" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D177" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="E177" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H177" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="178" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D178" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="E178" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H178" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="179" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D179" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="E179" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H179" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="180" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D180" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="E180" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H180" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="181" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D181" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="E181" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="H181" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="182" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D182" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="E182" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="H182" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="183" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D183" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="E183" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H183" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="184" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D184" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="E184" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H184" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="185" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D185" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="E185" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H185" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="186" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D186" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="E186" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="H186" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="187" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D187" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="E187" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H187" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="188" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D188" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="E188" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H188" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="189" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D189" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="E189" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H189" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D190" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="E190" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H190" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="191" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D191" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="E191" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H191" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="192" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D192" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="E192" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H192" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="193" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D193" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E193" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H193" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="194" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D194" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E194" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H194" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="195" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D195" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="E195" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H195" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="196" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D196" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E196" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H196" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="197" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D197" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E197" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H197" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="198" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D198" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E198" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H198" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="199" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D199" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="E199" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H199" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="200" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D200" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="E200" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H200" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="201" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D201" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="E201" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="H201" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="202" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D202" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E202" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="H202" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="203" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D203" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="E203" t="s">
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="H203" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="204" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D204" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="E204" t="s">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="H204" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="205" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D205" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="E205" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="H205" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="206" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D206" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E206" t="s">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c r="H206" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="207" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D207" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E207" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="H207" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="208" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D208" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="E208" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="H208" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="209" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D209" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E209" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="H209" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="210" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D210" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E210" t="s">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="H210" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="211" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D211" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="E211" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H211" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="212" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D212" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="E212" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H212" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="213" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D213" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E213" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H213" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="214" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D214" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="E214" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H214" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="215" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D215" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="E215" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H215" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="216" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D216" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="E216" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H216" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="217" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D217" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="E217" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H217" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="218" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D218" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="E218" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H218" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="219" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D219" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="E219" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H219" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="220" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D220" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E220" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H220" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="221" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D221" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E221" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H221" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="222" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D222" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="E222" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H222" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="223" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D223" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="E223" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H223" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="224" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D224" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="E224" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H224" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="225" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D225" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="E225" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H225" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="226" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D226" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E226" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H226" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="227" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D227" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="E227" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H227" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="228" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D228" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="E228" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H228" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="229" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D229" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="E229" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H229" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="230" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D230" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="E230" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H230" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="231" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D231" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="E231" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H231" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="232" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D232" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="E232" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H232" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D233" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="E233" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H233" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="234" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D234" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="E234" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H234" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="235" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D235" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E235" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H235" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="236" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D236" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="E236" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H236" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="237" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D237" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="E237" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H237" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="238" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D238" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="E238" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H238" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="239" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D239" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="E239" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H239" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="240" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D240" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="E240" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H240" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="241" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D241" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="E241" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H241" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="242" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D242" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="E242" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H242" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="243" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D243" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="E243" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H243" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="244" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D244" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E244" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H244" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="245" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D245" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E245" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H245" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="246" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D246" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="E246" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H246" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="247" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D247" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="E247" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H247" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="248" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D248" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="E248" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H248" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="249" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D249" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="E249" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H249" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="250" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D250" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="E250" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H250" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="251" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D251" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="E251" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="H251" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="252" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D252" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="E252" t="s">
-        <v>213</v>
+        <v>169</v>
       </c>
       <c r="H252" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="253" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D253" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="E253" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="H253" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="254" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D254" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="E254" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="H254" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="255" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D255" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="E255" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="H255" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="256" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D256" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="E256" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="H256" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="257" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D257" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="E257" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="H257" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="258" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D258" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="E258" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="H258" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="259" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D259" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="E259" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="H259" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="260" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D260" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="E260" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="H260" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="261" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D261" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="E261" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H261" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="262" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D262" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="E262" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H262" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="263" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D263" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="E263" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H263" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="264" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D264" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="E264" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H264" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="265" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D265" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="E265" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H265" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D266" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="E266" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H266" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="267" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D267" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="E267" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H267" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="268" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D268" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="E268" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H268" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="269" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D269" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="E269" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H269" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="270" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D270" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="E270" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H270" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="271" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D271" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="E271" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H271" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="272" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D272" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E272" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H272" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="273" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D273" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="E273" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H273" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="274" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D274" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="E274" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H274" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="275" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D275" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="E275" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H275" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="276" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D276" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E276" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H276" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="277" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D277" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E277" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H277" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="278" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D278" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="E278" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H278" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="279" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D279" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E279" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H279" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="280" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D280" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E280" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H280" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="281" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D281" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="E281" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H281" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="282" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D282" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="E282" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H282" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="283" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D283" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E283" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H283" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="284" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D284" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="E284" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H284" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="285" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D285" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="E285" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H285" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="286" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D286" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="E286" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H286" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="287" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D287" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="E287" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H287" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="288" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D288" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="E288" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H288" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D289" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="E289" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="H289" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="290" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D290" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E290" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="H290" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="291" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D291" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E291" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="H291" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="292" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D292" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="E292" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="H292" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="293" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D293" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="E293" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="H293" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="294" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D294" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="E294" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="H294" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="295" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D295" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="E295" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="H295" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="296" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D296" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E296" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="H296" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="297" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D297" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="E297" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="H297" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="298" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D298" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="E298" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="H298" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="299" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D299" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="E299" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="H299" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="300" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D300" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="E300" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="H300" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="301" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D301" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="E301" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H301" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D302" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="E302" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H302" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="303" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D303" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="E303" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H303" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="304" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D304" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="E304" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H304" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D305" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E305" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="306" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D306" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="E306" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="307" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D307" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="E307" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="308" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D308" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="E308" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="309" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D309" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="E309" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="310" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D310" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="E310" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="311" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D311" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="E311" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="312" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D312" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="E312" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="313" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D313" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="E313" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="314" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D314" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E314" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="315" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D315" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E315" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="316" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D316" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="E316" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="317" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D317" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="E317" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
     </row>
     <row r="318" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D318" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="E318" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="319" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D319" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="E319" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
     </row>
     <row r="320" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D320" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="E320" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="321" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D321" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="E321" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
     </row>
     <row r="322" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D322" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="E322" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="323" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D323" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="E323" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="324" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D324" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="E324" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="325" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D325" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="E325" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="326" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D326" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="E326" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="327" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D327" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="E327" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="328" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D328" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="E328" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="329" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D329" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="E329" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="330" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D330" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="E330" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="331" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D331" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="E331" t="s">
         <v>202</v>
@@ -7006,7 +6762,7 @@
     </row>
     <row r="332" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D332" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="E332" t="s">
         <v>203</v>
@@ -7014,7 +6770,7 @@
     </row>
     <row r="333" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D333" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="E333" t="s">
         <v>204</v>
@@ -7022,7 +6778,7 @@
     </row>
     <row r="334" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D334" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="E334" t="s">
         <v>205</v>
@@ -7030,860 +6786,806 @@
     </row>
     <row r="335" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D335" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="E335" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="336" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D336" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="E336" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="337" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D337" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="E337" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="338" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D338" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="E338" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="339" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D339" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="E339" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="340" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D340" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="E340" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="341" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D341" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="E341" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="342" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D342" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="E342" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="343" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D343" t="s">
-        <v>261</v>
-      </c>
-      <c r="E343" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
     </row>
     <row r="344" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D344" t="s">
-        <v>262</v>
-      </c>
-      <c r="E344" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
     </row>
     <row r="345" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D345" t="s">
-        <v>263</v>
-      </c>
-      <c r="E345" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
     </row>
     <row r="346" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D346" t="s">
-        <v>264</v>
-      </c>
-      <c r="E346" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
     </row>
     <row r="347" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D347" t="s">
-        <v>265</v>
-      </c>
-      <c r="E347" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
     </row>
     <row r="348" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D348" t="s">
-        <v>266</v>
-      </c>
-      <c r="E348" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
     </row>
     <row r="349" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D349" t="s">
-        <v>267</v>
-      </c>
-      <c r="E349" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
     </row>
     <row r="350" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D350" t="s">
-        <v>268</v>
-      </c>
-      <c r="E350" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
     </row>
     <row r="351" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D351" t="s">
-        <v>320</v>
-      </c>
-      <c r="E351" t="s">
-        <v>212</v>
+        <v>304</v>
       </c>
     </row>
     <row r="352" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D352" t="s">
-        <v>269</v>
-      </c>
-      <c r="E352" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="353" spans="4:5" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="353" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D353" t="s">
-        <v>270</v>
-      </c>
-      <c r="E353" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="354" spans="4:5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="354" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D354" t="s">
-        <v>271</v>
-      </c>
-      <c r="E354" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="355" spans="4:5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="355" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D355" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="356" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D356" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="357" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D357" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="358" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D358" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="359" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D359" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="360" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D360" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="361" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D361" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="362" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D362" t="s">
         <v>272</v>
       </c>
-      <c r="E355" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="356" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D356" t="s">
-        <v>273</v>
-      </c>
-      <c r="E356" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="357" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D357" t="s">
-        <v>274</v>
-      </c>
-      <c r="E357" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="358" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D358" t="s">
-        <v>275</v>
-      </c>
-      <c r="E358" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="359" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D359" t="s">
-        <v>276</v>
-      </c>
-      <c r="E359" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="360" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D360" t="s">
-        <v>277</v>
-      </c>
-      <c r="E360" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="361" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D361" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="362" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D362" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="363" spans="4:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="363" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D363" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="364" spans="4:5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="364" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D364" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="365" spans="4:5" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="365" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D365" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="366" spans="4:5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="366" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D366" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="367" spans="4:5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="367" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D367" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="368" spans="4:5" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="368" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D368" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="369" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D369" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="370" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D370" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="371" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D371" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="372" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D372" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="373" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D373" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="374" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D374" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="375" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D375" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="376" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D376" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="377" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D377" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="378" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D378" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
     </row>
     <row r="379" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D379" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="380" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D380" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="381" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D381" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
     </row>
     <row r="382" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D382" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="383" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D383" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
     </row>
     <row r="384" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D384" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="385" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D385" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="386" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D386" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="387" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D387" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="388" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D388" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="389" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D389" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="390" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D390" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="391" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D391" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
     </row>
     <row r="392" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D392" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="393" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D393" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="394" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D394" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="395" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D395" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
     </row>
     <row r="396" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D396" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="397" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D397" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="398" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D398" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="399" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D399" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="400" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D400" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
     <row r="401" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D401" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
     </row>
     <row r="402" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D402" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="403" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D403" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="404" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D404" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="405" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D405" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
     </row>
     <row r="406" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D406" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="407" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D407" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="408" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D408" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="409" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D409" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="410" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D410" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="411" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D411" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="412" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D412" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="413" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D413" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="414" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D414" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="415" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D415" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="416" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D416" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="417" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D417" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="418" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D418" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="419" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D419" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="420" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D420" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="421" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D421" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="422" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D422" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="423" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D423" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="424" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D424" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="425" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D425" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="426" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D426" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="427" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D427" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="428" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D428" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
     </row>
     <row r="429" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D429" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="430" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D430" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="431" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D431" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
     </row>
     <row r="432" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D432" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="433" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D433" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
     </row>
     <row r="434" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D434" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="435" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D435" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="436" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D436" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="437" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D437" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="438" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D438" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="439" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D439" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="440" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D440" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="441" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D441" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
     </row>
     <row r="442" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D442" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="443" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D443" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="444" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D444" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="445" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D445" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
     </row>
     <row r="446" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D446" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="447" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D447" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="448" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D448" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="449" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D449" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="450" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D450" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
     <row r="451" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D451" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="452" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D452" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="453" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D453" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="454" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D454" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="455" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D455" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="456" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D456" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="457" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D457" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="458" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D458" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="459" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D459" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="460" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D460" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="461" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D461" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="462" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D462" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="463" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D463" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="464" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D464" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="465" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D465" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="466" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D466" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="467" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D467" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="468" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D468" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
     </row>
     <row r="469" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D469" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="470" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D470" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="471" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D471" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
     </row>
     <row r="472" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D472" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="473" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D473" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
     </row>
     <row r="474" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D474" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="475" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D475" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="476" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D476" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="477" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D477" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="478" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D478" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="479" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D479" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="480" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D480" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="481" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D481" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
     </row>
     <row r="482" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D482" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="483" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D483" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="484" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D484" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="485" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D485" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
     </row>
     <row r="486" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D486" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="487" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D487" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="488" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D488" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="489" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D489" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
     <row r="490" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D490" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
